--- a/medicine/Pharmacie/Système_de_classification_biopharmaceutique/Système_de_classification_biopharmaceutique.xlsx
+++ b/medicine/Pharmacie/Système_de_classification_biopharmaceutique/Système_de_classification_biopharmaceutique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_classification_biopharmaceutique</t>
+          <t>Système_de_classification_biopharmaceutique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le système de classification biopharmaceutique (BCS en anglais) est un système permettant de différencier les principes actifs en fonction de leur solubilité et de leur perméabilité[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système de classification biopharmaceutique (BCS en anglais) est un système permettant de différencier les principes actifs en fonction de leur solubilité et de leur perméabilité.
 Ce système restreint la prédiction en utilisant les paramètres de solubilité et de perméabilité intestinale. La classification de la solubilité est basée sur la pharmacopée américaine, alors que celle de la perméabilité intestinale est basée sur une comparaison avec l'injection intraveineuse. Tous ces facteurs sont très importants car 85% des médicaments les plus vendus aux États-Unis et en Europe sont administrés par voie orale [réf. nécessaire]   .
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_classification_biopharmaceutique</t>
+          <t>Système_de_classification_biopharmaceutique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Classes BCS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon le système de classification biopharmaceutique (BCS), les substances médicamenteuses sont classées en quatre classes selon leur solubilité et leur perméabilité[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le système de classification biopharmaceutique (BCS), les substances médicamenteuses sont classées en quatre classes selon leur solubilité et leur perméabilité : 
 Classe I - haute perméabilité, haute solubilité
-Exemple: métoprolol, paracétamol [2]
+Exemple: métoprolol, paracétamol 
 Ces composés sont bien absorbés et leur taux d'absorption est généralement supérieur à celui de l'excrétion.
 Classe II - haute perméabilité, faible solubilité
 Exemple: glibenclamide, bicalutamide, ézétimibe, acéclofénac
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_classification_biopharmaceutique</t>
+          <t>Système_de_classification_biopharmaceutique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le système BCS les principes actifs sont classés sur la base de la solubilité, de la dissolution (la vitesse de mise en solution) et de la perméabilité.
 La définition de la classe de solubilité est basée sur la dose la plus élevée d'un produit à libération immédiate. Un médicament est considéré comme hautement soluble lorsque la dose la plus élevée est soluble dans 250 ml ou moins de milieu aqueux dans une plage de pH de 1 à 7,5. L'estimation du volume de 250 ml est dérivée des protocoles d'étude de bioéquivalence typiques qui prescrivent l'administration d'un produit médicamenteux à des volontaires humains à jeun avec un verre d'eau.
